--- a/Swift To Kotlin.xlsx
+++ b/Swift To Kotlin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palashroy/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{133147FB-64CE-1E4A-B900-892A24627BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E91875-6A20-2E43-8D07-8FAA654643E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45360" yWindow="-4120" windowWidth="37660" windowHeight="21400" xr2:uid="{523F9392-1A58-6441-802E-A371D117E942}"/>
+    <workbookView xWindow="-43300" yWindow="-2500" windowWidth="37660" windowHeight="21400" xr2:uid="{523F9392-1A58-6441-802E-A371D117E942}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="116">
   <si>
     <t>Swift Syntax</t>
   </si>
@@ -258,6 +258,126 @@
   </si>
   <si>
     <t>! Is once in Swift and twice(!!) in kotlin to bang the optional value</t>
+  </si>
+  <si>
+    <t>Interger Operation</t>
+  </si>
+  <si>
+    <t>i += 1</t>
+  </si>
+  <si>
+    <t>increment of i</t>
+  </si>
+  <si>
+    <t>i -= 1</t>
+  </si>
+  <si>
+    <t>decrement of i</t>
+  </si>
+  <si>
+    <t>i.inc()</t>
+  </si>
+  <si>
+    <t>i.dec()</t>
+  </si>
+  <si>
+    <t>i += 1 works too</t>
+  </si>
+  <si>
+    <t>i -= 1 works too</t>
+  </si>
+  <si>
+    <t>Array/List</t>
+  </si>
+  <si>
+    <t>["a", "b", "c"]</t>
+  </si>
+  <si>
+    <t>Array(arrayLiteral: "a", "b", "c")</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>listOf("a", "b", "c")</t>
+  </si>
+  <si>
+    <t>mutable</t>
+  </si>
+  <si>
+    <t>mutableListOf("a", "b", "c")</t>
+  </si>
+  <si>
+    <t>in swift mutable or immutable array is defined by the variable type. If let is usedits a immutable and var for mutable.</t>
+  </si>
+  <si>
+    <t>in kotlin, listOf is immutable and mutableListOf is mutable where add and remove works.</t>
+  </si>
+  <si>
+    <t>array operations</t>
+  </si>
+  <si>
+    <t>var arr = ["a", "b", "c"]</t>
+  </si>
+  <si>
+    <t>arr.append("d")</t>
+  </si>
+  <si>
+    <t>arr.remove(at: 1)</t>
+  </si>
+  <si>
+    <t>will remove b</t>
+  </si>
+  <si>
+    <t>will inser d at the end</t>
+  </si>
+  <si>
+    <t>arr.insert("x", at:1 )</t>
+  </si>
+  <si>
+    <t>will insert X at 1</t>
+  </si>
+  <si>
+    <t>val arr = mutableListOf("a", "b", "c")</t>
+  </si>
+  <si>
+    <t>arr.add("d")</t>
+  </si>
+  <si>
+    <t>arr.add(1, "d")</t>
+  </si>
+  <si>
+    <t>arr.removeAt(1)</t>
+  </si>
+  <si>
+    <t>result: []</t>
+  </si>
+  <si>
+    <t>result: ["a", "x", "c", "d"]</t>
+  </si>
+  <si>
+    <t>result: ["a", "c", "d"]</t>
+  </si>
+  <si>
+    <t>result: ["a", "b", "c", "d"]</t>
+  </si>
+  <si>
+    <t>arr.removeAll { it in school }</t>
+  </si>
+  <si>
+    <t>arr.removeAll { it == "x" }</t>
+  </si>
+  <si>
+    <t>will remove only x</t>
+  </si>
+  <si>
+    <t>arr.removeAll { $0 == "x" }</t>
+  </si>
+  <si>
+    <t>arr.removeAll()</t>
+  </si>
+  <si>
+    <t>will remove all elements</t>
   </si>
 </sst>
 </file>
@@ -327,10 +447,28 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -339,13 +477,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,6 +490,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,51 +816,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0377AD5-81CE-4A49-8C1C-996C2921C270}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -725,20 +876,22 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="16"/>
       <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
@@ -754,20 +907,22 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
@@ -778,14 +933,18 @@
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="F5" s="4" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="4" t="s">
         <v>7</v>
       </c>
@@ -799,14 +958,14 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -820,28 +979,28 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="17" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -859,16 +1018,18 @@
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="4" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="16"/>
       <c r="J8" s="4" t="s">
         <v>21</v>
       </c>
@@ -884,12 +1045,18 @@
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="4" t="s">
         <v>27</v>
       </c>
@@ -902,12 +1069,18 @@
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="4" t="s">
         <v>31</v>
       </c>
@@ -916,14 +1089,14 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -937,26 +1110,26 @@
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="4" t="s">
         <v>7</v>
       </c>
@@ -972,12 +1145,18 @@
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="10" t="s">
         <v>38</v>
       </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="16"/>
       <c r="J13" s="4" t="s">
         <v>39</v>
       </c>
@@ -986,12 +1165,18 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="10" t="s">
         <v>40</v>
       </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1003,14 +1188,14 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1021,24 +1206,36 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1049,45 +1246,69 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="16"/>
       <c r="J18" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="16"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="16"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="16"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1099,14 +1320,14 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="15"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1116,72 +1337,102 @@
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="6"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="10" t="s">
         <v>60</v>
       </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="6"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="10" t="s">
         <v>61</v>
       </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="16"/>
       <c r="J25" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="6"/>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="10" t="s">
         <v>62</v>
       </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="6"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="10" t="s">
         <v>47</v>
       </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1195,17 +1446,18 @@
       <c r="A29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="16"/>
       <c r="J29" s="4" t="s">
         <v>7</v>
       </c>
@@ -1219,14 +1471,18 @@
       <c r="A30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="F30" s="4" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="10" t="s">
         <v>70</v>
       </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="4" t="s">
         <v>71</v>
       </c>
@@ -1235,115 +1491,426 @@
       <c r="A31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="4" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="16"/>
       <c r="J31" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="16"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+    <row r="33" spans="1:12">
+      <c r="A33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:12">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="B34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:12">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10">
+    <row r="36" spans="1:12">
+      <c r="A36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="B38" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+    <row r="39" spans="1:12">
+      <c r="A39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="B40" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="B42" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="L42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="B43" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="B44" s="14"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="B45" s="14"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="16"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="B46" s="14"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" s="14"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="B48" s="14"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="16"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="14"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="14"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="16"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="14"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="14"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="14"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="16"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="14"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="16"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="14"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="16"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="14"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="16"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="14"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="14"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="16"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="14"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="16"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="14"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="16"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="14"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="14"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="16"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="14"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="16"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="14"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Swift To Kotlin.xlsx
+++ b/Swift To Kotlin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palashroy/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E91875-6A20-2E43-8D07-8FAA654643E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4B8A9C-DEB7-FD48-A39D-F86D32B4C52F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43300" yWindow="-2500" windowWidth="37660" windowHeight="21400" xr2:uid="{523F9392-1A58-6441-802E-A371D117E942}"/>
+    <workbookView xWindow="-50240" yWindow="-3760" windowWidth="37660" windowHeight="21400" xr2:uid="{523F9392-1A58-6441-802E-A371D117E942}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="128">
   <si>
     <t>Swift Syntax</t>
   </si>
@@ -378,13 +378,58 @@
   </si>
   <si>
     <t>will remove all elements</t>
+  </si>
+  <si>
+    <t>[Any] in swift makes the array Heterogeneous, in Kotlin listOf is Heterogeneous by default</t>
+  </si>
+  <si>
+    <t>val oddList = listOf(arr, [1,2,3], "Madan")</t>
+  </si>
+  <si>
+    <t>var oddList: [Any] = [arr, [1,2,3], "Madan"]</t>
+  </si>
+  <si>
+    <t>Loops</t>
+  </si>
+  <si>
+    <t>for (item in numbers) {
+        print(item)
+    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for item in numbers {
+        print(item)
+    }	</t>
+  </si>
+  <si>
+    <t>For in Loop</t>
+  </si>
+  <si>
+    <t>Swift and kotlin is almost same for loop, only kotlin uses the condition in ()</t>
+  </si>
+  <si>
+    <t>Enumerated</t>
+  </si>
+  <si>
+    <t>for ((index, element) in arr.withIndex()) {
+    println("Item at $index is $element\n")
+}</t>
+  </si>
+  <si>
+    <t>for (index, item) in ar.enumerated() {
+    print("Item at \(index) is \(item)")
+}</t>
+  </si>
+  <si>
+    <t>Swift uses enumerated() for index and item hashmap. 
+Kotlin uses withIndex() for the same.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -414,13 +459,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -477,17 +515,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -495,13 +533,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0377AD5-81CE-4A49-8C1C-996C2921C270}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -858,11 +913,11 @@
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="15"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="15"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -883,7 +938,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="16"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
@@ -891,7 +946,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="9"/>
-      <c r="I3" s="16"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
@@ -914,7 +969,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="16"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="10" t="s">
         <v>11</v>
       </c>
@@ -922,7 +977,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="16"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
@@ -938,13 +993,13 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="16"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="4" t="s">
         <v>7</v>
       </c>
@@ -961,11 +1016,11 @@
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="15"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="15"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -988,7 +1043,7 @@
       <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -1000,7 +1055,7 @@
       <c r="H7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -1023,13 +1078,13 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="16"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="16"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1050,13 +1105,13 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="16"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="16"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1074,13 +1129,13 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="16"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1092,11 +1147,11 @@
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="15"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1119,7 +1174,7 @@
       <c r="D12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="10" t="s">
         <v>33</v>
       </c>
@@ -1129,7 +1184,7 @@
       <c r="H12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1150,13 +1205,13 @@
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="16"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="4" t="s">
         <v>39</v>
       </c>
@@ -1170,13 +1225,13 @@
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="16"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="16"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1191,11 +1246,11 @@
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="15"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1214,13 +1269,13 @@
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="16"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="16"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="5"/>
@@ -1229,13 +1284,13 @@
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="16"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="16"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1252,13 +1307,13 @@
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="16"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="4" t="s">
         <v>53</v>
       </c>
@@ -1270,13 +1325,13 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="16"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:17">
@@ -1286,13 +1341,13 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="10" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="16"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:17">
@@ -1302,13 +1357,13 @@
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="16"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="16"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1323,11 +1378,11 @@
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="15"/>
+      <c r="I22" s="14"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1345,13 +1400,13 @@
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="10" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="16"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="4" t="s">
         <v>63</v>
       </c>
@@ -1363,13 +1418,13 @@
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="10" t="s">
         <v>60</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="16"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="4" t="s">
         <v>64</v>
       </c>
@@ -1382,13 +1437,13 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="10" t="s">
         <v>61</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="16"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="4" t="s">
         <v>65</v>
       </c>
@@ -1400,13 +1455,13 @@
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="16"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="5"/>
@@ -1415,24 +1470,24 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="16"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="10" t="s">
         <v>47</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="16"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="15"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="15"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1446,18 +1501,18 @@
       <c r="A29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="17"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="10" t="s">
         <v>67</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="16"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="4" t="s">
         <v>7</v>
       </c>
@@ -1476,13 +1531,13 @@
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="10" t="s">
         <v>70</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="16"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="4" t="s">
         <v>71</v>
       </c>
@@ -1496,13 +1551,13 @@
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="10" t="s">
         <v>74</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="16"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="4" t="s">
         <v>75</v>
       </c>
@@ -1512,14 +1567,14 @@
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="16"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:14">
       <c r="A33" s="3" t="s">
         <v>76</v>
       </c>
@@ -1530,7 +1585,7 @@
         <v>78</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="11" t="s">
         <v>81</v>
       </c>
@@ -1543,7 +1598,7 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:14">
       <c r="A34" s="2"/>
       <c r="B34" s="10" t="s">
         <v>79</v>
@@ -1552,7 +1607,7 @@
         <v>80</v>
       </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="11" t="s">
         <v>82</v>
       </c>
@@ -1565,19 +1620,19 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:14">
       <c r="A35" s="2"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="8"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="15"/>
+      <c r="I35" s="14"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:14">
       <c r="A36" s="3" t="s">
         <v>85</v>
       </c>
@@ -1595,17 +1650,17 @@
         <v>89</v>
       </c>
       <c r="H36" s="9"/>
-      <c r="I36" s="15"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:14">
       <c r="A37" s="2"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14"/>
       <c r="F37" s="8" t="s">
         <v>90</v>
       </c>
@@ -1613,28 +1668,28 @@
         <v>91</v>
       </c>
       <c r="H37" s="9"/>
-      <c r="I37" s="15"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:14">
       <c r="A38" s="2"/>
       <c r="B38" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="8" t="s">
         <v>102</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="15"/>
+      <c r="I38" s="14"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:14">
       <c r="A39" s="3" t="s">
         <v>94</v>
       </c>
@@ -1642,13 +1697,13 @@
         <v>96</v>
       </c>
       <c r="C39" s="9"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="8" t="s">
         <v>103</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
-      <c r="I39" s="15"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="9" t="s">
         <v>99</v>
       </c>
@@ -1656,18 +1711,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="B40" s="14" t="s">
+    <row r="40" spans="1:14">
+      <c r="B40" s="13" t="s">
         <v>97</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="18" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="17" t="s">
         <v>105</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
-      <c r="I40" s="16"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="12" t="s">
         <v>98</v>
       </c>
@@ -1675,18 +1730,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="B41" s="14" t="s">
+    <row r="41" spans="1:14">
+      <c r="B41" s="13" t="s">
         <v>100</v>
       </c>
       <c r="C41" s="12"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="14" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="13" t="s">
         <v>104</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
-      <c r="I41" s="16"/>
+      <c r="I41" s="15"/>
       <c r="J41" s="12" t="s">
         <v>101</v>
       </c>
@@ -1694,227 +1749,266 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="B42" s="14" t="s">
+    <row r="42" spans="1:14">
+      <c r="B42" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="14" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="19" t="s">
+      <c r="I42" s="15"/>
+      <c r="J42" s="18" t="s">
         <v>112</v>
       </c>
       <c r="L42" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="B43" s="14" t="s">
+    <row r="43" spans="1:14">
+      <c r="B43" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="14" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="13" t="s">
         <v>110</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="19" t="s">
+      <c r="I43" s="15"/>
+      <c r="J43" s="18" t="s">
         <v>115</v>
       </c>
       <c r="L43" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="B44" s="14"/>
+    <row r="44" spans="1:14">
+      <c r="B44" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
-      <c r="I44" s="16"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="B45" s="14"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" s="13"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="13"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
-      <c r="I45" s="16"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="B46" s="14"/>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="13"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="13"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
-      <c r="I46" s="16"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="B47" s="14"/>
-      <c r="C47" s="12"/>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" spans="1:14" ht="57" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="21"/>
       <c r="D47" s="12"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="16"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="B48" s="14"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="16"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="61" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="14"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="13"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
-      <c r="I49" s="16"/>
+      <c r="I49" s="15"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="14"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="14"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
-      <c r="I50" s="16"/>
+      <c r="I50" s="15"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="14"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="13"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="16"/>
+      <c r="I51" s="15"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="14"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
-      <c r="I52" s="16"/>
+      <c r="I52" s="15"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="14"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="13"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
-      <c r="I53" s="16"/>
+      <c r="I53" s="15"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="14"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="14"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="13"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
-      <c r="I54" s="16"/>
+      <c r="I54" s="15"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="14"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="14"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="13"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="16"/>
+      <c r="I55" s="15"/>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="14"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="14"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="13"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="I56" s="16"/>
+      <c r="I56" s="15"/>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="14"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
-      <c r="E57" s="16"/>
+      <c r="E57" s="15"/>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="14"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
-      <c r="E58" s="16"/>
+      <c r="E58" s="15"/>
     </row>
     <row r="59" spans="2:9">
-      <c r="B59" s="14"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
-      <c r="E59" s="16"/>
+      <c r="E59" s="15"/>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="14"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
-      <c r="E60" s="16"/>
+      <c r="E60" s="15"/>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="14"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
-      <c r="E61" s="16"/>
+      <c r="E61" s="15"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="14"/>
+      <c r="B62" s="13"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
-      <c r="E62" s="16"/>
+      <c r="E62" s="15"/>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="14"/>
+      <c r="B63" s="13"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
-      <c r="E63" s="16"/>
+      <c r="E63" s="15"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="14"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
-      <c r="E64" s="16"/>
+      <c r="E64" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="J1:N1"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J48:N48"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="B1:E1"/>

--- a/Swift To Kotlin.xlsx
+++ b/Swift To Kotlin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palashroy/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4B8A9C-DEB7-FD48-A39D-F86D32B4C52F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753FABF9-F200-A249-99B8-912D0CC87445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50240" yWindow="-3760" windowWidth="37660" windowHeight="21400" xr2:uid="{523F9392-1A58-6441-802E-A371D117E942}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{523F9392-1A58-6441-802E-A371D117E942}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="143">
   <si>
     <t>Swift Syntax</t>
   </si>
@@ -423,6 +423,65 @@
   <si>
     <t>Swift uses enumerated() for index and item hashmap. 
 Kotlin uses withIndex() for the same.</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>for i in 1...5 { print(i)}</t>
+  </si>
+  <si>
+    <t>for (i in 1..5) print(i)</t>
+  </si>
+  <si>
+    <t>IMP: Swift uses three dots for range and kotlin uses two dots</t>
+  </si>
+  <si>
+    <t>for i in stride(from: 1, to: 6, by: 2) { print(i)}</t>
+  </si>
+  <si>
+    <t>for (item in 1..5 step 2) { print(item)}</t>
+  </si>
+  <si>
+    <t>step in Kotlin is same as stride by, but stride does not take the last number, kotlin does.</t>
+  </si>
+  <si>
+    <t>While loop</t>
+  </si>
+  <si>
+    <t>while (i &lt; 50 ) {
+       println(i)
+       i += 1
+   }</t>
+  </si>
+  <si>
+    <t>while  i &lt; 50  {
+       print(i)
+       i += 1
+   }</t>
+  </si>
+  <si>
+    <t>do while</t>
+  </si>
+  <si>
+    <t>repeat {
+    print(i)
+} while i &lt; 34</t>
+  </si>
+  <si>
+    <t>do {
+       print(i)
+   } while (i&lt; 35)</t>
+  </si>
+  <si>
+    <t>repeat(2) {
+       print(i)
+       i+=1
+   }</t>
+  </si>
+  <si>
+    <t>swift doe not have do-while, but repeat while, where as kotlin has do-while loop and a reat loop.
+Do-while and repeat in kotlin both iterates and repeats through the loop. As do does it first checks later, repeat is used to repeat a job for certain times.</t>
   </si>
 </sst>
 </file>
@@ -472,7 +531,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Annai MN Regular"/>
     </font>
@@ -515,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -523,9 +582,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -555,6 +611,18 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -873,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0377AD5-81CE-4A49-8C1C-996C2921C270}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -894,30 +962,30 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="14"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="13"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -931,22 +999,22 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
@@ -962,22 +1030,22 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="15"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="14"/>
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
@@ -988,18 +1056,18 @@
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="15"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1013,14 +1081,14 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="14"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1034,28 +1102,28 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -1073,18 +1141,18 @@
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="15"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1100,18 +1168,18 @@
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="15"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1124,18 +1192,18 @@
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="15"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1144,14 +1212,14 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1165,26 +1233,26 @@
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1200,18 +1268,18 @@
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="15"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="4" t="s">
         <v>39</v>
       </c>
@@ -1220,18 +1288,18 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="15"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1243,14 +1311,14 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="14"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1264,33 +1332,33 @@
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="15"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="5"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="10" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="15"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1302,68 +1370,68 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="5"/>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="10" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="15"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="10" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="15"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="5"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="10" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="15"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="5"/>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="10" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="15"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1375,14 +1443,14 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="14"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="13"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1395,36 +1463,36 @@
       <c r="A23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="10" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="15"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="5"/>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="10" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="15"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="4" t="s">
         <v>64</v>
       </c>
@@ -1432,62 +1500,62 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="5"/>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="10" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="15"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="5"/>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="10" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="15"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="5"/>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="10" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="15"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="14"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1501,18 +1569,18 @@
       <c r="A29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="10" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="15"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="4" t="s">
         <v>7</v>
       </c>
@@ -1526,18 +1594,18 @@
       <c r="A30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="10" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="15"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="14"/>
       <c r="J30" s="4" t="s">
         <v>71</v>
       </c>
@@ -1546,165 +1614,165 @@
       <c r="A31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="10" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="15"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="14"/>
       <c r="J31" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="15"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="14"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="11" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11" t="s">
+      <c r="H33" s="10"/>
+      <c r="I33" s="10" t="s">
         <v>83</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2"/>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="11" t="s">
+      <c r="D34" s="9"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11" t="s">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10" t="s">
         <v>84</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="14"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="13"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="14"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="13"/>
       <c r="J36" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="8" t="s">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="14"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="13"/>
       <c r="J37" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2"/>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="8" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="14"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="13"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="8" t="s">
+      <c r="C39" s="8"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="9" t="s">
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="8" t="s">
         <v>99</v>
       </c>
       <c r="L39" t="s">
@@ -1712,18 +1780,18 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="17" t="s">
+      <c r="C40" s="11"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="12" t="s">
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="11" t="s">
         <v>98</v>
       </c>
       <c r="L40" t="s">
@@ -1731,18 +1799,18 @@
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="13" t="s">
+      <c r="C41" s="11"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="12" t="s">
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="11" t="s">
         <v>101</v>
       </c>
       <c r="L41" t="s">
@@ -1750,19 +1818,19 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="13" t="s">
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="18" t="s">
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="17" t="s">
         <v>112</v>
       </c>
       <c r="L42" t="s">
@@ -1770,19 +1838,19 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="13" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="18" t="s">
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="17" t="s">
         <v>115</v>
       </c>
       <c r="L43" t="s">
@@ -1790,62 +1858,62 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="13" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="18" t="s">
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="B45" s="13"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="15"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="14"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="15"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="14"/>
     </row>
     <row r="47" spans="1:14" ht="57" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="19" t="s">
+      <c r="C47" s="20"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="18" t="s">
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1853,156 +1921,210 @@
       <c r="A48" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="19" t="s">
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="23" t="s">
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="13"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="15"/>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="13"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="15"/>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="13"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="15"/>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="13"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="15"/>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="13"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="15"/>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="13"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="15"/>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="13"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="15"/>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="13"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="15"/>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="13"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="15"/>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="13"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="15"/>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="13"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="15"/>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="13"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="15"/>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="13"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="15"/>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="13"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="15"/>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="13"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="15"/>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="13"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="15"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="25"/>
+      <c r="J49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="B50" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="14"/>
+      <c r="J50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="B51" s="12"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="14"/>
+    </row>
+    <row r="52" spans="1:16" ht="72" customHeight="1">
+      <c r="A52" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="14"/>
+      <c r="J52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="B53" s="12"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="14"/>
+    </row>
+    <row r="54" spans="1:16" ht="68" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G54" s="20"/>
+      <c r="H54" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I54" s="25"/>
+      <c r="J54" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="B55" s="12"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="14"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="B56" s="12"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="14"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="B57" s="12"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="B58" s="12"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="B59" s="12"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="B60" s="12"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="B61" s="12"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="B62" s="12"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="B63" s="12"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="B64" s="12"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="19">
+    <mergeCell ref="J54:P54"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="F47:H47"/>
     <mergeCell ref="B47:C47"/>

--- a/Swift To Kotlin.xlsx
+++ b/Swift To Kotlin.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palashroy/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753FABF9-F200-A249-99B8-912D0CC87445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C22FFD2-1F7B-3B4F-A02D-6B0AF7B1EF48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{523F9392-1A58-6441-802E-A371D117E942}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{523F9392-1A58-6441-802E-A371D117E942}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic" sheetId="1" r:id="rId1"/>
+    <sheet name="Func" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="160">
   <si>
     <t>Swift Syntax</t>
   </si>
@@ -482,14 +483,121 @@
   <si>
     <t>swift doe not have do-while, but repeat while, where as kotlin has do-while loop and a reat loop.
 Do-while and repeat in kotlin both iterates and repeats through the loop. As do does it first checks later, repeat is used to repeat a job for certain times.</t>
+  </si>
+  <si>
+    <t>IMP: Kotlin range is .. But Swift range is …</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>fun myFunction() {
+    print("Hello World!")
+}</t>
+  </si>
+  <si>
+    <t>func myFunction() {
+    print("Hello World!")
+}</t>
+  </si>
+  <si>
+    <t>Swift function starts with func key word.
+Kotlin function stats with fun keyword.</t>
+  </si>
+  <si>
+    <t>inline Condition</t>
+  </si>
+  <si>
+    <t>val temperature = 10
+val message = "The water temperature is ${ if (temperature &gt; 50) "too warm" else "Cold" }."
+println(message)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Swift can use ternary operator to achive a condition in a statement.
+Kotlin uses if else statement to verify the same condition.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Kotlin does not have Ternary operator.</t>
+    </r>
+  </si>
+  <si>
+    <t>var temperature = 10
+var message = "The water temperature is \(temperature &gt; 50 ?   "Too Hot" :  "Cold")."
+    print(message)</t>
+  </si>
+  <si>
+    <t>function with return</t>
+  </si>
+  <si>
+    <t>fun getRandomDay() : String {
+    val days = listOf("Monday", "Tuesday", "Wednesday", "Thursday",
+        "Friday", "Saturday", "Sunday")
+    return (days.random())
+}</t>
+  </si>
+  <si>
+    <t>func getRandomDay() -&gt; String {
+    let days = ["Monday", "Tuesday", "Wednesday", "Thursday",
+                "Friday", "Saturday", "Sunday"]
+    return days.randomElement() ?? ""
+}</t>
+  </si>
+  <si>
+    <t>Swift makes the return value as -&gt; return Type
+Kotlin uses the return value as : return Type</t>
+  </si>
+  <si>
+    <t>fun swim(speed: String = "fast") {
+   println("swimming $speed")
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Diff </t>
+  </si>
+  <si>
+    <t>func swim(speed: String = "fast") {
+   print("swimming \(speed)")
+}</t>
+  </si>
+  <si>
+    <t>parameterized
+Function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -574,27 +682,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -607,10 +715,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -619,11 +727,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0377AD5-81CE-4A49-8C1C-996C2921C270}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView topLeftCell="C1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1359,7 +1492,9 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2004,9 +2139,10 @@
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="14"/>
-      <c r="J52" t="s">
+      <c r="J52" s="24" t="s">
         <v>7</v>
       </c>
+      <c r="K52" s="28"/>
     </row>
     <row r="53" spans="1:16">
       <c r="B53" s="12"/>
@@ -2115,8 +2251,9 @@
       <c r="E64" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="J54:P54"/>
+    <mergeCell ref="J52:K52"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="F49:I49"/>
     <mergeCell ref="B50:E50"/>
@@ -2138,4 +2275,969 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC483575-FEAE-114C-89A9-2586A59B45AA}">
+  <dimension ref="A1:N88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="27">
+      <c r="A1" s="1"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" ht="68" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="12"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" ht="89" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" ht="116" customHeight="1">
+      <c r="A6" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" ht="49" customHeight="1">
+      <c r="A8" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="12"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="12"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="12"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="14"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="14"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="12"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="14"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="12"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="12"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="14"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="12"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="12"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="12"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="12"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="14"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="12"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="12"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="12"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="14"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="12"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="14"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="12"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="14"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="12"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="14"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="12"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="12"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="14"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="12"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="14"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="12"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="14"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="12"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="14"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="12"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="14"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="12"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="14"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="12"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="14"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="12"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="14"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="12"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="14"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="12"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="14"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="12"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="14"/>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="12"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="14"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="12"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="14"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="12"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="14"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="12"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="14"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="12"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="14"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="12"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="14"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="12"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="14"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="12"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="14"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="12"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="14"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="12"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="14"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="12"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="14"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="12"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="14"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="12"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="14"/>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="12"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="14"/>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="12"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="14"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="12"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="14"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="12"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="14"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="12"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="14"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="12"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="14"/>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="12"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="14"/>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="12"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="14"/>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="12"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="14"/>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="12"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="J2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Swift To Kotlin.xlsx
+++ b/Swift To Kotlin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palashroy/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C22FFD2-1F7B-3B4F-A02D-6B0AF7B1EF48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FDD760-921D-0D46-823C-813BCE8F04B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{523F9392-1A58-6441-802E-A371D117E942}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="188">
   <si>
     <t>Swift Syntax</t>
   </si>
@@ -541,11 +541,6 @@
     </r>
   </si>
   <si>
-    <t>var temperature = 10
-var message = "The water temperature is \(temperature &gt; 50 ?   "Too Hot" :  "Cold")."
-    print(message)</t>
-  </si>
-  <si>
     <t>function with return</t>
   </si>
   <si>
@@ -582,6 +577,126 @@
   <si>
     <t>parameterized
 Function</t>
+  </si>
+  <si>
+    <t>Compact 
+Function</t>
+  </si>
+  <si>
+    <t>func isTooHot(temp: Double) -&gt; Bool { return temp &gt; 50 }</t>
+  </si>
+  <si>
+    <t>fun isTooHot(temp: Int) = temp &gt; 30</t>
+  </si>
+  <si>
+    <t>In Swift compact function does not exist as such.
+In Kotlin, we can create compact function.</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>var res = arr.filter{ $0.first == "p"}</t>
+  </si>
+  <si>
+    <t>val res = arr.filter { it[0] == 'p' }</t>
+  </si>
+  <si>
+    <t>vary similar to each other. In Swift $0 is the each element, and it in Kotlin</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>var res2 = arr.map { item in
+    print(item)
+    return item
+}</t>
+  </si>
+  <si>
+    <t>val res = arr.asSequence().map {
+        println("access: $it")
+        it
+    }</t>
+  </si>
+  <si>
+    <t>Swift map does not do sequencing. It applies directly on the array.
+Kotlin can also use map directly on arr, but when you apply as sequence or sequence on the arr with an action, it does not hold the result, it holds the sequence of the array with the knowledge of action, and when you access it, it return the result, after applying the action. Action can be filter for example.</t>
+  </si>
+  <si>
+    <t>FlatMap</t>
+  </si>
+  <si>
+    <t>var arr1 = ["a", "b", "c", "d", "e", "f"]
+var arr3 = ["x", "y", "z"]
+var res3 = [arr1, arr3]
+print(res3.flatMap{$0})</t>
+  </si>
+  <si>
+    <t>val arr1 = listOf("a", "b", "c", "d", "e", "f")
+val arr2 = listOf("x", "y", "z")
+val ar3 = listOf(arr1, arr2)
+println(ar3.flatten())</t>
+  </si>
+  <si>
+    <t>Kotlin flatten() works same as flatmap of Swift, but in flatmap you have to declare $0 as a default argument, that is not required in Kotlin</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>print(zip(arr1, arr3).map{$0})</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> println(arr1.zip(arr2))</t>
+  </si>
+  <si>
+    <t>Zip in both cases mix the array together till the least numer of array.
+In Swift Zip returns a sequence unlike Kotlin, hence it is nedded to be mapped</t>
+  </si>
+  <si>
+    <t>closures/Lambdas</t>
+  </si>
+  <si>
+    <t>val price = 20
+val totalPrice = { items: Int -&gt; items * price }
+println(totalPrice(15))</t>
+  </si>
+  <si>
+    <t>let price = 20
+let totalPrice = {(item: Int) in (item * price)}
+print(totalPrice(13))</t>
+  </si>
+  <si>
+    <t>Swift closure and kotlin lambdas are similar concept. Which basically a block of code has its own input and output, can be part of argument of a function.</t>
+  </si>
+  <si>
+    <t>let totalPrice: (Int, Double) -&gt; Double = {(item: Int, price: Double) in (Double(item) * price)}
+func checkValue(price: Double, Items: Int, operation: (Int, Double) -&gt; Double) -&gt; Double {
+    return operation(Items, price)
+}
+var res = checkValue(price: 20.4, Items: 15, operation: totalPrice)
+print(res)</t>
+  </si>
+  <si>
+    <t>val totalPrice: (Int, Double) -&gt; Double = { items: Int, price: Double -&gt; items * price }
+fun checkValue(price: Double, items: Int, operation: (Int, Double) -&gt; Double): Double {
+    return operation(items, price)
+}
+val res = checkValue(20.4,15, totalPrice)
+println(res)</t>
+  </si>
+  <si>
+    <t>closure as a function parameter</t>
+  </si>
+  <si>
+    <t>Here the lambda is implemented as a part of function, and then returning the value.
+There is not much doifference between Swift and Kotlin syntax, only the brackets where we need to place for Swift in parameters.</t>
+  </si>
+  <si>
+    <t>var temperature = 10
+var message = "The water temperature is \(temperature &gt; 50 ?   "Too Hot" :  "Cold")."
+print(message)</t>
   </si>
 </sst>
 </file>
@@ -644,12 +759,15 @@
       <name val="Annai MN Regular"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="3">
@@ -682,16 +800,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -727,36 +841,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,8 +1193,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0377AD5-81CE-4A49-8C1C-996C2921C270}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1087,827 +1207,827 @@
     <col min="11" max="11" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27">
-      <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:17" s="31" customFormat="1" ht="27">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="26" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="2"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="9" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="4" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="2"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="9" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="4" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="9" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="4" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="9" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="4" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="4" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="9" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="4" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="2"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="9" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="2"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="9" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="14"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="9" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="2" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="5"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="9" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="4" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="5"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="9" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="4"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="5"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="9" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="4"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="5"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="9" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="2"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="13"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="11"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="9" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="4" t="s">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="5"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="9" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="4" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="5"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="9" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="4" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="5"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="9" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="14"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="5"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="9" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="14"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="2"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="9" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="4" t="s">
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="9" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="4" t="s">
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="9" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="4" t="s">
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="2"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="2"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="10" t="s">
+      <c r="D33" s="7"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10" t="s">
+      <c r="H33" s="8"/>
+      <c r="I33" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J33" s="2"/>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="2"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="1"/>
+      <c r="B34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="10" t="s">
+      <c r="D34" s="7"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10" t="s">
+      <c r="H34" s="8"/>
+      <c r="I34" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J34" s="2"/>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="2"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="2"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8" t="s">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="2" t="s">
+      <c r="H36" s="6"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="2"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="7" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="2" t="s">
+      <c r="H37" s="6"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="2"/>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="7" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="2"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="7" t="s">
+      <c r="C39" s="6"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="8" t="s">
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="6" t="s">
         <v>99</v>
       </c>
       <c r="L39" t="s">
@@ -1915,18 +2035,18 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="16" t="s">
+      <c r="C40" s="9"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="11" t="s">
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="9" t="s">
         <v>98</v>
       </c>
       <c r="L40" t="s">
@@ -1934,18 +2054,18 @@
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="12" t="s">
+      <c r="C41" s="9"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="11" t="s">
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="9" t="s">
         <v>101</v>
       </c>
       <c r="L41" t="s">
@@ -1953,19 +2073,19 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="12" t="s">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="17" t="s">
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="15" t="s">
         <v>112</v>
       </c>
       <c r="L42" t="s">
@@ -1973,19 +2093,19 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="12" t="s">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="17" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="15" t="s">
         <v>115</v>
       </c>
       <c r="L43" t="s">
@@ -1993,262 +2113,262 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="12" t="s">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="17" t="s">
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="B45" s="12"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="14"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="14"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:14" ht="57" customHeight="1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="18" t="s">
+      <c r="C47" s="18"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="17" t="s">
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="61" customHeight="1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="18" t="s">
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="22" t="s">
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="24" t="s">
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="25"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="23"/>
       <c r="J49" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="12" t="s">
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="14"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="12"/>
       <c r="J50" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="B51" s="12"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="14"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:16" ht="72" customHeight="1">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="18" t="s">
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="24" t="s">
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K52" s="28"/>
+      <c r="K52" s="25"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="B53" s="12"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="14"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:16" ht="68" customHeight="1">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="18" t="s">
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="19" t="s">
+      <c r="G54" s="18"/>
+      <c r="H54" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="I54" s="25"/>
-      <c r="J54" s="18" t="s">
+      <c r="I54" s="23"/>
+      <c r="J54" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="B55" s="12"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="14"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="B56" s="12"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="14"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="B57" s="12"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="14"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="B58" s="12"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="14"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="B59" s="12"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="14"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="B60" s="12"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="14"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="12"/>
     </row>
     <row r="61" spans="1:16">
-      <c r="B61" s="12"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="14"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:16">
-      <c r="B62" s="12"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="14"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="B63" s="12"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="14"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="B64" s="12"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="14"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2279,952 +2399,1079 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC483575-FEAE-114C-89A9-2586A59B45AA}">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27">
-      <c r="A1" s="1"/>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:15" s="31" customFormat="1" ht="27">
+      <c r="A1" s="28"/>
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="32" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="26" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-    </row>
-    <row r="2" spans="1:14" ht="68" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+    </row>
+    <row r="2" spans="1:15" ht="68" customHeight="1">
+      <c r="A2" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3" s="12"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:14" ht="89" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" ht="89" customHeight="1">
+      <c r="A4" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" ht="116" customHeight="1">
+      <c r="A6" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5" s="12"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" ht="116" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="B6" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="18" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" ht="49" customHeight="1">
+      <c r="A8" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:14" ht="49" customHeight="1">
-      <c r="A8" s="36" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" ht="34">
+      <c r="A10" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12" s="12"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13" s="12"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="12"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="12"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="12"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="12"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="12"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="12"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="12"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="12"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="12"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="12"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="12"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="14"/>
+      <c r="B10" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="23"/>
+      <c r="J12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="82" customHeight="1">
+      <c r="A13" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="72" customHeight="1">
+      <c r="A14" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:15" ht="49" customHeight="1">
+      <c r="A15" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" ht="55" customHeight="1">
+      <c r="A17" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:15" ht="111" customHeight="1">
+      <c r="A19" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="B26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="12"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="14"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="12"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="14"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="12"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="14"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="12"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="14"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="12"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="14"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="12"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="14"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="12"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="14"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="12"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="14"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="12"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="14"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="12"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="12"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="14"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="12"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="14"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="12"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="14"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="12"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="14"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="12"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="14"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="12"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="14"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="12"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="14"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="12"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="14"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="12"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="14"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="12"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="12"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="14"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="12"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="14"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="12"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="14"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="12"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="14"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="12"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="14"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="12"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="14"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="12"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="14"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="12"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="14"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="2:9">
-      <c r="B59" s="12"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="14"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="12"/>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="12"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="14"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="12"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="14"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="12"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="12"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="14"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="12"/>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="12"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="14"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="12"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="12"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="14"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="12"/>
     </row>
     <row r="65" spans="2:9">
-      <c r="B65" s="12"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="14"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="2:9">
-      <c r="B66" s="12"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="14"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="2:9">
-      <c r="B67" s="12"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="14"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="2:9">
-      <c r="B68" s="12"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="14"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="12"/>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="12"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="14"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="12"/>
     </row>
     <row r="70" spans="2:9">
-      <c r="B70" s="12"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="14"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="12"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="14"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="12"/>
     </row>
     <row r="72" spans="2:9">
-      <c r="B72" s="12"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="14"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="12"/>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="12"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="14"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="12"/>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="12"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="14"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="12"/>
     </row>
     <row r="75" spans="2:9">
-      <c r="B75" s="12"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="14"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="12"/>
     </row>
     <row r="76" spans="2:9">
-      <c r="B76" s="12"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="14"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="12"/>
     </row>
     <row r="77" spans="2:9">
-      <c r="B77" s="12"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="14"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="12"/>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="12"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="14"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="12"/>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="12"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="14"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="12"/>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="12"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="14"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="12"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="14"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="12"/>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="12"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="14"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="12"/>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="12"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="14"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="12"/>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="12"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="14"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="12"/>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="12"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="14"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="2:9">
-      <c r="B86" s="12"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="14"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="12"/>
     </row>
     <row r="87" spans="2:9">
-      <c r="B87" s="12"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="14"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="12"/>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88" s="12"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="14"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="35">
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:O13"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:N10"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="J4:N4"/>

--- a/Swift To Kotlin.xlsx
+++ b/Swift To Kotlin.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palashroy/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FDD760-921D-0D46-823C-813BCE8F04B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85734B9A-06D2-C94D-8AD6-34688621B2A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{523F9392-1A58-6441-802E-A371D117E942}"/>
+    <workbookView xWindow="-43680" yWindow="-3580" windowWidth="37660" windowHeight="21400" activeTab="2" xr2:uid="{523F9392-1A58-6441-802E-A371D117E942}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
     <sheet name="Func" sheetId="2" r:id="rId2"/>
+    <sheet name="Class" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="199">
   <si>
     <t>Swift Syntax</t>
   </si>
@@ -697,6 +698,73 @@
     <t>var temperature = 10
 var message = "The water temperature is \(temperature &gt; 50 ?   "Too Hot" :  "Cold")."
 print(message)</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>class Cars {
+    var color =  "Blue"
+    var transmission = "Manual"
+    var model = "Honda"
+    var make = 2021
+}</t>
+  </si>
+  <si>
+    <t>NO diff
+In Kotlin, we create a function that would call cars and that function will be called from Main.kt main method.</t>
+  </si>
+  <si>
+    <t>constructor</t>
+  </si>
+  <si>
+    <t>constructor is completely different in swift and Kotlin. Swift needs to declare init() to provide parameter, but kotclin class can have construtor in its declaration as shown in the example.</t>
+  </si>
+  <si>
+    <t>class Cars(var color: String, var maxSpeed: Int) {
+    var transmission = "Manual"
+    var model = "Honda"
+    var make = 2021
+    var details = ""
+    init {
+       details = "This is a $color $make $model with a $transmission transmission and $maxSpeed as max speed"
+    }
+}</t>
+  </si>
+  <si>
+    <t>class Car {
+    var transmission = "Manual"
+    var model = "Honda"
+    var make = 2021
+    var color: String
+    var maxSpeed: Int
+    var details: String
+    init(color: String, maxSpeed: Int){
+        self.color = color
+        self.maxSpeed = maxSpeed
+        details = "This is a \(color) \(make) \(model) with a \(transmission) transmission and \(maxSpeed) as max speed"
+    }
+}</t>
+  </si>
+  <si>
+    <t>visibility 
+modifiers</t>
+  </si>
+  <si>
+    <t>private : Limited to only class
+file-private: Limited to file, not just the class.
+Internal: Limited to framework or file.
+Open: Open to whole application. 
+Public: Public is same as open but not accessibkle outside module.</t>
+  </si>
+  <si>
+    <t>private: Limited to class only 
+protected: Same as Private, but visible to subclasses
+internal: Visile to module/library.
+Public: Visible all the way, inside and outside of the class and Module</t>
+  </si>
+  <si>
+    <t>In Swift we have 5 modifiers and in Kotlin 4. By default in swift is internal, but in Kotlin the default access level is Public</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1263,7 @@
   <sheetViews>
     <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2401,9 +2469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC483575-FEAE-114C-89A9-2586A59B45AA}">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:E4"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3487,4 +3555,516 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F8EADC-7B3C-5C48-96EF-ADD84447D5AB}">
+  <dimension ref="A1:N46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4:M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="31" customFormat="1" ht="27">
+      <c r="A1" s="28"/>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+    </row>
+    <row r="2" spans="1:14" ht="96" customHeight="1">
+      <c r="A2" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" ht="289" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+    </row>
+    <row r="4" spans="1:14" ht="107" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="10"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="10"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="10"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="J2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Swift To Kotlin.xlsx
+++ b/Swift To Kotlin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palashroy/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85734B9A-06D2-C94D-8AD6-34688621B2A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A327280-EF6E-1849-8908-02F7981B4865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43680" yWindow="-3580" windowWidth="37660" windowHeight="21400" activeTab="2" xr2:uid="{523F9392-1A58-6441-802E-A371D117E942}"/>
+    <workbookView xWindow="660" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{523F9392-1A58-6441-802E-A371D117E942}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="207">
   <si>
     <t>Swift Syntax</t>
   </si>
@@ -765,6 +765,84 @@
   </si>
   <si>
     <t>In Swift we have 5 modifiers and in Kotlin 4. By default in swift is internal, but in Kotlin the default access level is Public</t>
+  </si>
+  <si>
+    <t>inheritance</t>
+  </si>
+  <si>
+    <t>class Vehicle {
+    var type: String
+    var numberOfWheels: Int
+    init(type: String, numberOfWheels: Int) {
+        self.type = type
+        self.numberOfWheels = numberOfWheels
+    }
+    func vehicleDetails() {
+        print("It's a \(type) vehicle with \(numberOfWheels) wheels")
+    }
+}
+class Car: Vehicle {
+    var transmission = "Manual"
+    var model = "Honda"
+    var make = 2021
+    var color: String
+    var maxSpeed: Int
+    init(color: String, maxSpeed: Int){
+        self.color = color
+        self.maxSpeed = maxSpeed
+        super.init(type: "Sedan", numberOfWheels: 4)
+    }
+    override func vehicleDetails() {
+        print("This is a \(color) \(make) \(model) with a \(transmission) transmission and \(maxSpeed) as max speed")
+    }
+}</t>
+  </si>
+  <si>
+    <t>open class Vehicle(type: String, numberOfWheels: Int) {
+    open fun vehicleDetails() {
+        print("It's a $this.type vehicle with $this.numberOfWheels wheels")
+    }
+}
+class Cars(var color: String, var maxSpeed: Int): Vehicle(type = "Sedan", numberOfWheels = 4) {
+    var transmission = "Manual"
+    var model = "Honda"
+    var make = 2021
+    var details = ""
+    val carType: String
+        get() = if ( make &lt; 2024) { "Used" } else { "New" }
+    override fun vehicleDetails() {
+        print("This is a $color $make $model with a $transmission transmission and $maxSpeed as max speed")
+    }
+}</t>
+  </si>
+  <si>
+    <t>The Kotlin inheritance is very similar to Swift inheritance. The only difference is the parent class has to be defined as Open to inherit. By default they are final. 
+On the other hand Swift is open by default and to stop inheritance you need to declare as final.</t>
+  </si>
+  <si>
+    <t>Abstract Class/ 
+Protocol</t>
+  </si>
+  <si>
+    <t>protocol Engine {
+    var horsePower: Int { get set }
+    var engineType: String {get set}
+    func updateEngine()
+}</t>
+  </si>
+  <si>
+    <t>Swift protocol and Kotlin abstract class is same concept. Swift protocol can be extended to provide a default implementation. But Kotlin abstract class cannot be extended. But if an interface is declared and the abstract class is extending it, then the abstract class can provide a default interface.</t>
+  </si>
+  <si>
+    <t>interface Automobile {
+    val autoMobileType: String
+}
+abstract class Engine: Automobile {
+    abstract val engineType: String
+    override val autoMobileType: String = "Onroad vehicle"
+    abstract val horsePower: Int
+    abstract fun updateEngine()
+}</t>
   </si>
 </sst>
 </file>
@@ -868,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -944,6 +1022,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3562,13 +3652,22 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4:M4"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="31" customFormat="1" ht="27">
@@ -3662,55 +3761,96 @@
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:14">
-      <c r="B5" s="10"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="10"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="12"/>
+    <row r="5" spans="1:14" ht="16" customHeight="1">
+      <c r="A5" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" ht="409" customHeight="1">
+      <c r="A6" s="38"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="12"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="1:14" ht="91" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="1:14" ht="149" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="10"/>
@@ -4051,7 +4191,14 @@
       <c r="I46" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="19">
+    <mergeCell ref="J5:M8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="B5:E8"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="F5:I8"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="J3:M3"/>

--- a/Swift To Kotlin.xlsx
+++ b/Swift To Kotlin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palashroy/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A327280-EF6E-1849-8908-02F7981B4865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AB7C5B-BE7F-CC49-A2EC-0E1B54552230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{523F9392-1A58-6441-802E-A371D117E942}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="211">
   <si>
     <t>Swift Syntax</t>
   </si>
@@ -820,18 +820,11 @@
 On the other hand Swift is open by default and to stop inheritance you need to declare as final.</t>
   </si>
   <si>
-    <t>Abstract Class/ 
-Protocol</t>
-  </si>
-  <si>
     <t>protocol Engine {
     var horsePower: Int { get set }
     var engineType: String {get set}
     func updateEngine()
 }</t>
-  </si>
-  <si>
-    <t>Swift protocol and Kotlin abstract class is same concept. Swift protocol can be extended to provide a default implementation. But Kotlin abstract class cannot be extended. But if an interface is declared and the abstract class is extending it, then the abstract class can provide a default interface.</t>
   </si>
   <si>
     <t>interface Automobile {
@@ -843,6 +836,39 @@
     abstract val horsePower: Int
     abstract fun updateEngine()
 }</t>
+  </si>
+  <si>
+    <t>Swift protocol and Kotlin abstract class is same concept. Swift protocol can be extended to provide a default implementation. But Kotlin abstract class cannot be extended. But if an interface is declared and the abstract class is extending it, then the abstract class can provide a default interface.
+In kotlin the difference between abstract class and Interface is : Abstract class can have constructor but interface cannot.</t>
+  </si>
+  <si>
+    <t>Abstract Class/ Interface/ 
+Protocol</t>
+  </si>
+  <si>
+    <t>Singleton</t>
+  </si>
+  <si>
+    <t>class SingleTonExample {
+    static let sharedObject: SingleTonExample = SingleTonExample()
+    init() {}
+    func someOperation() {
+        print("Its a static class")
+    }
+}
+let obj = SingleTonExample.sharedObject
+obj.someOperation()</t>
+  </si>
+  <si>
+    <t>object SingleTonExample {
+    fun someFunction(){
+        println("This is a singleton")
+    }
+}</t>
+  </si>
+  <si>
+    <t>Singleton is a class  which will have only one instance and can be called by its name to run its internal operation. In Swift we have to declare the object as static to make it uni. 
+In Kotlin we use 'Object ' keyword to make it singleton and it will not create any object.</t>
   </si>
 </sst>
 </file>
@@ -1352,8 +1378,8 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2560,7 +2586,7 @@
   <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -3651,9 +3677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F8EADC-7B3C-5C48-96EF-ADD84447D5AB}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3831,16 +3857,16 @@
     </row>
     <row r="9" spans="1:14" ht="149" customHeight="1">
       <c r="A9" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>203</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>204</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="40"/>
       <c r="F9" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -3852,15 +3878,28 @@
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="12"/>
+    <row r="10" spans="1:14" ht="195" customHeight="1">
+      <c r="A10" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="10"/>
@@ -4191,11 +4230,14 @@
       <c r="I46" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
     <mergeCell ref="J5:M8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
     <mergeCell ref="B5:E8"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="F5:I8"/>

--- a/Swift To Kotlin.xlsx
+++ b/Swift To Kotlin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palashroy/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AB7C5B-BE7F-CC49-A2EC-0E1B54552230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170FBD51-5234-074F-8BDA-4B03824F331B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{523F9392-1A58-6441-802E-A371D117E942}"/>
+    <workbookView xWindow="880" yWindow="1040" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{523F9392-1A58-6441-802E-A371D117E942}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="214">
   <si>
     <t>Swift Syntax</t>
   </si>
@@ -869,6 +869,20 @@
   <si>
     <t>Singleton is a class  which will have only one instance and can be called by its name to run its internal operation. In Swift we have to declare the object as static to make it uni. 
 In Kotlin we use 'Object ' keyword to make it singleton and it will not create any object.</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>enum Number: Int {
+    case One = 1
+    case Two = 2
+}</t>
+  </si>
+  <si>
+    <t>enum class Number(val value: Int) {
+    One (1), Two (2);
+}</t>
   </si>
 </sst>
 </file>
@@ -3677,9 +3691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F8EADC-7B3C-5C48-96EF-ADD84447D5AB}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10:I10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3901,15 +3915,22 @@
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
     </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="12"/>
+    <row r="11" spans="1:14" ht="76" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="10"/>
@@ -4230,7 +4251,9 @@
       <c r="I46" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
     <mergeCell ref="J5:M8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
